--- a/biology/Médecine/Torsten_Wiesel/Torsten_Wiesel.xlsx
+++ b/biology/Médecine/Torsten_Wiesel/Torsten_Wiesel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Torsten Wiesel, né le 3 juin 1924 à Uppsala en Suède, est un neurobiologiste suédois. Il reçoit le prix Nobel de médecine en 1981.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tosten Wiesel fait ses études de médecine au Karolinska Institut en Suède d'où il sort diplômé en 1954. En 1955, il émigre aux États-Unis et travaille avec Stephen Kuffler à l'université Johns-Hopkins à Baltimore. En 1959, il rencontre David Hubel avec qui il travaillera plus de vingt ans à l'université Harvard à Boston. Il y devient professeur de neurobiologie en 1968 puis directeur du département en 1971. En 1983, il part pour l'université Rockefeller à New York, dont il sera le président de 1991 à 1998.
 En 1981, il est corécipiendaire du prix Nobel de médecine avec David Hubel pour leurs travaux sur le système visuel humain. Ce prix est également partagé avec Roger Sperry pour des travaux différents.
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
